--- a/results/5-2021/fim_long.xlsx
+++ b/results/5-2021/fim_long.xlsx
@@ -77007,7 +77007,7 @@
         <v>267</v>
       </c>
       <c r="H2935" t="n">
-        <v>189.87565218125</v>
+        <v>145.87565218125</v>
       </c>
     </row>
     <row r="2936">
@@ -77033,7 +77033,7 @@
         <v>267</v>
       </c>
       <c r="H2936" t="n">
-        <v>190.605030442156</v>
+        <v>146.605030442156</v>
       </c>
     </row>
     <row r="2937">
@@ -77059,7 +77059,7 @@
         <v>267</v>
       </c>
       <c r="H2937" t="n">
-        <v>191.704568170472</v>
+        <v>147.704568170472</v>
       </c>
     </row>
     <row r="2938">
@@ -77085,7 +77085,7 @@
         <v>267</v>
       </c>
       <c r="H2938" t="n">
-        <v>193.181613852178</v>
+        <v>149.181613852178</v>
       </c>
     </row>
     <row r="2939">
@@ -77111,7 +77111,7 @@
         <v>267</v>
       </c>
       <c r="H2939" t="n">
-        <v>206.622153793172</v>
+        <v>159.560869928672</v>
       </c>
     </row>
     <row r="2940">
@@ -77137,7 +77137,7 @@
         <v>267</v>
       </c>
       <c r="H2940" t="n">
-        <v>219.07867428159</v>
+        <v>169.180231690847</v>
       </c>
     </row>
     <row r="2941">
@@ -77163,7 +77163,7 @@
         <v>267</v>
       </c>
       <c r="H2941" t="n">
-        <v>242.345290812083</v>
+        <v>187.14752854527</v>
       </c>
     </row>
     <row r="2942">
@@ -77189,7 +77189,7 @@
         <v>267</v>
       </c>
       <c r="H2942" t="n">
-        <v>264.517460401194</v>
+        <v>204.269655107681</v>
       </c>
     </row>
     <row r="2943">
@@ -77215,7 +77215,7 @@
         <v>267</v>
       </c>
       <c r="H2943" t="n">
-        <v>286.85063444044</v>
+        <v>221.516114950209</v>
       </c>
     </row>
     <row r="2944">
@@ -77241,7 +77241,7 @@
         <v>267</v>
       </c>
       <c r="H2944" t="n">
-        <v>309.171955456352</v>
+        <v>238.753421472632</v>
       </c>
     </row>
     <row r="2945">
@@ -77267,7 +77267,7 @@
         <v>267</v>
       </c>
       <c r="H2945" t="n">
-        <v>318.185841523167</v>
+        <v>245.714260259061</v>
       </c>
     </row>
     <row r="2946">
@@ -77293,7 +77293,7 @@
         <v>267</v>
       </c>
       <c r="H2946" t="n">
-        <v>327.673604727551</v>
+        <v>253.041043582034</v>
       </c>
     </row>
     <row r="2947">
@@ -77319,7 +77319,7 @@
         <v>267</v>
       </c>
       <c r="H2947" t="n">
-        <v>337.592165329725</v>
+        <v>260.700503756413</v>
       </c>
     </row>
     <row r="2948">
@@ -77345,7 +77345,7 @@
         <v>267</v>
       </c>
       <c r="H2948" t="n">
-        <v>346.907609574993</v>
+        <v>267.894216338825</v>
       </c>
     </row>
     <row r="2949">
@@ -77371,7 +77371,7 @@
         <v>267</v>
       </c>
       <c r="H2949" t="n">
-        <v>348.142678402566</v>
+        <v>268.847979780602</v>
       </c>
     </row>
     <row r="2950">
@@ -77397,7 +77397,7 @@
         <v>267</v>
       </c>
       <c r="H2950" t="n">
-        <v>349.33466749036</v>
+        <v>269.76847553724</v>
       </c>
     </row>
     <row r="2951">
@@ -77423,7 +77423,7 @@
         <v>267</v>
       </c>
       <c r="H2951" t="n">
-        <v>350.483576838375</v>
+        <v>270.655703608737</v>
       </c>
     </row>
     <row r="2952">
@@ -77449,7 +77449,7 @@
         <v>267</v>
       </c>
       <c r="H2952" t="n">
-        <v>351.63248618639</v>
+        <v>271.542931680234</v>
       </c>
     </row>
     <row r="2953">
@@ -77475,7 +77475,7 @@
         <v>267</v>
       </c>
       <c r="H2953" t="n">
-        <v>352.831785729868</v>
+        <v>272.469072827006</v>
       </c>
     </row>
     <row r="2954">

--- a/results/5-2021/fim_long.xlsx
+++ b/results/5-2021/fim_long.xlsx
@@ -38571,7 +38571,7 @@
         <v>267</v>
       </c>
       <c r="H1446" t="n">
-        <v>1805.1</v>
+        <v>2008.1</v>
       </c>
     </row>
     <row r="1447">

--- a/results/5-2021/fim_long.xlsx
+++ b/results/5-2021/fim_long.xlsx
@@ -32203,7 +32203,7 @@
         <v>266</v>
       </c>
       <c r="H1199" t="n">
-        <v>1421.87975729415</v>
+        <v>1413.45749282617</v>
       </c>
     </row>
     <row r="1200">
@@ -32229,7 +32229,7 @@
         <v>266</v>
       </c>
       <c r="H1200" t="n">
-        <v>1444.93653255135</v>
+        <v>1427.14723671102</v>
       </c>
     </row>
     <row r="1201">
@@ -32255,7 +32255,7 @@
         <v>266</v>
       </c>
       <c r="H1201" t="n">
-        <v>1476.45306437146</v>
+        <v>1462.2023489413</v>
       </c>
     </row>
     <row r="1202">
@@ -32281,7 +32281,7 @@
         <v>266</v>
       </c>
       <c r="H1202" t="n">
-        <v>1507.96959619156</v>
+        <v>1497.31236390521</v>
       </c>
     </row>
     <row r="1203">
@@ -32307,7 +32307,7 @@
         <v>266</v>
       </c>
       <c r="H1203" t="n">
-        <v>1539.48612801167</v>
+        <v>1532.47783944893</v>
       </c>
     </row>
     <row r="1204">
@@ -32333,7 +32333,7 @@
         <v>266</v>
       </c>
       <c r="H1204" t="n">
-        <v>1571.00265983178</v>
+        <v>1567.69933908669</v>
       </c>
     </row>
     <row r="1205">
@@ -32359,7 +32359,7 @@
         <v>266</v>
       </c>
       <c r="H1205" t="n">
-        <v>1584.36618614279</v>
+        <v>1533.70761434351</v>
       </c>
     </row>
     <row r="1206">
@@ -32385,7 +32385,7 @@
         <v>266</v>
       </c>
       <c r="H1206" t="n">
-        <v>1597.72971245381</v>
+        <v>1558.10109247903</v>
       </c>
     </row>
     <row r="1207">
@@ -32411,7 +32411,7 @@
         <v>266</v>
       </c>
       <c r="H1207" t="n">
-        <v>1611.09323876482</v>
+        <v>1582.54445282097</v>
       </c>
     </row>
     <row r="1208">
@@ -32437,7 +32437,7 @@
         <v>266</v>
       </c>
       <c r="H1208" t="n">
-        <v>1624.45676507583</v>
+        <v>1607.0381934232</v>
       </c>
     </row>
     <row r="1209">
@@ -32463,7 +32463,7 @@
         <v>266</v>
       </c>
       <c r="H1209" t="n">
-        <v>1635.47255309534</v>
+        <v>1617.92428587564</v>
       </c>
     </row>
     <row r="1210">
@@ -32489,7 +32489,7 @@
         <v>266</v>
       </c>
       <c r="H1210" t="n">
-        <v>1646.48834111485</v>
+        <v>1628.82809502662</v>
       </c>
     </row>
     <row r="1211">
@@ -32515,7 +32515,7 @@
         <v>266</v>
       </c>
       <c r="H1211" t="n">
-        <v>1657.50412913436</v>
+        <v>67.5883915295485</v>
       </c>
     </row>
     <row r="1212">
@@ -32541,7 +32541,7 @@
         <v>266</v>
       </c>
       <c r="H1212" t="n">
-        <v>1668.51991715387</v>
+        <v>68.0375846148522</v>
       </c>
     </row>
     <row r="1213">
@@ -32567,7 +32567,7 @@
         <v>266</v>
       </c>
       <c r="H1213" t="n">
-        <v>1709.63272563162</v>
+        <v>69.7140501798121</v>
       </c>
     </row>
     <row r="1214">
@@ -32593,7 +32593,7 @@
         <v>266</v>
       </c>
       <c r="H1214" t="n">
-        <v>1750.74553410936</v>
+        <v>71.3905157447725</v>
       </c>
     </row>
     <row r="1215">
@@ -32619,7 +32619,7 @@
         <v>266</v>
       </c>
       <c r="H1215" t="n">
-        <v>1791.8583425871</v>
+        <v>73.0669813097325</v>
       </c>
     </row>
     <row r="1216">
@@ -32645,7 +32645,7 @@
         <v>266</v>
       </c>
       <c r="H1216" t="n">
-        <v>1832.97115106484</v>
+        <v>74.7434468746926</v>
       </c>
     </row>
     <row r="1217">
@@ -32671,7 +32671,7 @@
         <v>266</v>
       </c>
       <c r="H1217" t="n">
-        <v>1863.61261587471</v>
+        <v>75.9929202752146</v>
       </c>
     </row>
     <row r="1218">
@@ -38597,7 +38597,7 @@
         <v>267</v>
       </c>
       <c r="H1447" t="n">
-        <v>1918.5942369875</v>
+        <v>1830.5942369875</v>
       </c>
     </row>
     <row r="1448">
@@ -38623,7 +38623,7 @@
         <v>267</v>
       </c>
       <c r="H1448" t="n">
-        <v>1729.8847802101</v>
+        <v>1748.67185118644</v>
       </c>
     </row>
     <row r="1449">
@@ -38649,7 +38649,7 @@
         <v>267</v>
       </c>
       <c r="H1449" t="n">
-        <v>1727.11305191325</v>
+        <v>1744.82714721481</v>
       </c>
     </row>
     <row r="1450">
@@ -38675,7 +38675,7 @@
         <v>267</v>
       </c>
       <c r="H1450" t="n">
-        <v>1728.60153200657</v>
+        <v>1746.33089386998</v>
       </c>
     </row>
     <row r="1451">
@@ -38701,7 +38701,7 @@
         <v>267</v>
       </c>
       <c r="H1451" t="n">
-        <v>1722.06497564255</v>
+        <v>1739.72729546593</v>
       </c>
     </row>
     <row r="1452">
@@ -38727,7 +38727,7 @@
         <v>267</v>
       </c>
       <c r="H1452" t="n">
-        <v>1703.5206059736</v>
+        <v>1720.9927258959</v>
       </c>
     </row>
     <row r="1453">
@@ -38753,7 +38753,7 @@
         <v>267</v>
       </c>
       <c r="H1453" t="n">
-        <v>1725.45642803293</v>
+        <v>1743.15353220976</v>
       </c>
     </row>
     <row r="1454">
@@ -38779,7 +38779,7 @@
         <v>267</v>
       </c>
       <c r="H1454" t="n">
-        <v>1736.87959026913</v>
+        <v>1754.69385584676</v>
       </c>
     </row>
     <row r="1455">
@@ -38805,7 +38805,7 @@
         <v>267</v>
       </c>
       <c r="H1455" t="n">
-        <v>1740.88206971945</v>
+        <v>1758.73738663552</v>
       </c>
     </row>
     <row r="1456">
@@ -38831,7 +38831,7 @@
         <v>267</v>
       </c>
       <c r="H1456" t="n">
-        <v>1736.3530812384</v>
+        <v>1754.16194668826</v>
       </c>
     </row>
     <row r="1457">
@@ -38857,7 +38857,7 @@
         <v>267</v>
       </c>
       <c r="H1457" t="n">
-        <v>1745.13340347099</v>
+        <v>1763.03232409393</v>
       </c>
     </row>
     <row r="1458">
@@ -38883,7 +38883,7 @@
         <v>267</v>
       </c>
       <c r="H1458" t="n">
-        <v>1754.99740285156</v>
+        <v>1772.99749335732</v>
       </c>
     </row>
     <row r="1459">
@@ -38909,7 +38909,7 @@
         <v>267</v>
       </c>
       <c r="H1459" t="n">
-        <v>1764.4092636028</v>
+        <v>1782.50588664192</v>
       </c>
     </row>
     <row r="1460">
@@ -38935,7 +38935,7 @@
         <v>267</v>
       </c>
       <c r="H1460" t="n">
-        <v>1774.42867425012</v>
+        <v>1792.62806114415</v>
       </c>
     </row>
     <row r="1461">
@@ -38961,7 +38961,7 @@
         <v>267</v>
       </c>
       <c r="H1461" t="n">
-        <v>1815.67167066215</v>
+        <v>1834.29406540049</v>
       </c>
     </row>
     <row r="1462">
@@ -38987,7 +38987,7 @@
         <v>267</v>
       </c>
       <c r="H1462" t="n">
-        <v>1850.51496552203</v>
+        <v>1869.49472971286</v>
       </c>
     </row>
     <row r="1463">
@@ -39013,7 +39013,7 @@
         <v>267</v>
       </c>
       <c r="H1463" t="n">
-        <v>1877.32277188713</v>
+        <v>1896.57748972749</v>
       </c>
     </row>
     <row r="1464">
@@ -39039,7 +39039,7 @@
         <v>267</v>
       </c>
       <c r="H1464" t="n">
-        <v>1896.8707408604</v>
+        <v>1916.32595199503</v>
       </c>
     </row>
     <row r="1465">
@@ -39065,7 +39065,7 @@
         <v>267</v>
       </c>
       <c r="H1465" t="n">
-        <v>1905.98220126227</v>
+        <v>1925.53086388099</v>
       </c>
     </row>
     <row r="1466">
@@ -44965,7 +44965,7 @@
         <v>268</v>
       </c>
       <c r="H1694" t="n">
-        <v>753</v>
+        <v>402.7</v>
       </c>
     </row>
     <row r="1695">
@@ -44991,7 +44991,7 @@
         <v>268</v>
       </c>
       <c r="H1695" t="n">
-        <v>847.383583333333</v>
+        <v>813.63025</v>
       </c>
     </row>
     <row r="1696">
@@ -45017,7 +45017,7 @@
         <v>268</v>
       </c>
       <c r="H1696" t="n">
-        <v>107.416916666667</v>
+        <v>813.63025</v>
       </c>
     </row>
     <row r="1697">
@@ -45043,7 +45043,7 @@
         <v>268</v>
       </c>
       <c r="H1697" t="n">
-        <v>102.75025</v>
+        <v>77.3302499999996</v>
       </c>
     </row>
     <row r="1698">
@@ -51385,7 +51385,7 @@
         <v>269</v>
       </c>
       <c r="H1943" t="n">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1944">
@@ -51411,7 +51411,7 @@
         <v>269</v>
       </c>
       <c r="H1944" t="n">
-        <v>0</v>
+        <v>18787.0709763412</v>
       </c>
     </row>
     <row r="1945">
@@ -51437,7 +51437,7 @@
         <v>269</v>
       </c>
       <c r="H1945" t="n">
-        <v>0</v>
+        <v>17714.0953015661</v>
       </c>
     </row>
     <row r="1946">
@@ -70613,7 +70613,7 @@
         <v>266</v>
       </c>
       <c r="H2687" t="n">
-        <v>182.350621081697</v>
+        <v>179.613095448598</v>
       </c>
     </row>
     <row r="2688">
@@ -70639,7 +70639,7 @@
         <v>266</v>
       </c>
       <c r="H2688" t="n">
-        <v>182.350621081697</v>
+        <v>177.87899060212</v>
       </c>
     </row>
     <row r="2689">
@@ -70665,7 +70665,7 @@
         <v>266</v>
       </c>
       <c r="H2689" t="n">
-        <v>182.350621081697</v>
+        <v>179.050933885514</v>
       </c>
     </row>
     <row r="2690">
@@ -70691,7 +70691,7 @@
         <v>266</v>
       </c>
       <c r="H2690" t="n">
-        <v>182.350621081697</v>
+        <v>180.240986912212</v>
       </c>
     </row>
     <row r="2691">
@@ -70717,7 +70717,7 @@
         <v>266</v>
       </c>
       <c r="H2691" t="n">
-        <v>224.431533639012</v>
+        <v>223.530246245868</v>
       </c>
     </row>
     <row r="2692">
@@ -70743,7 +70743,7 @@
         <v>266</v>
       </c>
       <c r="H2692" t="n">
-        <v>224.431533639012</v>
+        <v>224.757072647811</v>
       </c>
     </row>
     <row r="2693">
@@ -70769,7 +70769,7 @@
         <v>266</v>
       </c>
       <c r="H2693" t="n">
-        <v>224.431533639011</v>
+        <v>287.474096443894</v>
       </c>
     </row>
     <row r="2694">
@@ -70795,7 +70795,7 @@
         <v>266</v>
       </c>
       <c r="H2694" t="n">
-        <v>221.973860694428</v>
+        <v>289.42165846958</v>
       </c>
     </row>
     <row r="2695">
@@ -70821,7 +70821,7 @@
         <v>266</v>
       </c>
       <c r="H2695" t="n">
-        <v>219.516187749845</v>
+        <v>291.393485351702</v>
       </c>
     </row>
     <row r="2696">
@@ -70847,7 +70847,7 @@
         <v>266</v>
       </c>
       <c r="H2696" t="n">
-        <v>217.058514805262</v>
+        <v>293.389819365149</v>
       </c>
     </row>
     <row r="2697">
@@ -70873,7 +70873,7 @@
         <v>266</v>
       </c>
       <c r="H2697" t="n">
-        <v>218.342237136957</v>
+        <v>295.112000645216</v>
       </c>
     </row>
     <row r="2698">
@@ -70899,7 +70899,7 @@
         <v>266</v>
       </c>
       <c r="H2698" t="n">
-        <v>219.625959468652</v>
+        <v>296.84280009151</v>
       </c>
     </row>
     <row r="2699">
@@ -70925,7 +70925,7 @@
         <v>266</v>
       </c>
       <c r="H2699" t="n">
-        <v>220.909681800347</v>
+        <v>43.3847892278886</v>
       </c>
     </row>
     <row r="2700">
@@ -70951,7 +70951,7 @@
         <v>266</v>
       </c>
       <c r="H2700" t="n">
-        <v>222.193404132042</v>
+        <v>43.6369014138907</v>
       </c>
     </row>
     <row r="2701">
@@ -70977,7 +70977,7 @@
         <v>266</v>
       </c>
       <c r="H2701" t="n">
-        <v>225.495381563086</v>
+        <v>44.2853817960706</v>
       </c>
     </row>
     <row r="2702">
@@ -71003,7 +71003,7 @@
         <v>266</v>
       </c>
       <c r="H2702" t="n">
-        <v>228.79735899413</v>
+        <v>44.9338621782503</v>
       </c>
     </row>
     <row r="2703">
@@ -71029,7 +71029,7 @@
         <v>266</v>
       </c>
       <c r="H2703" t="n">
-        <v>232.099336425175</v>
+        <v>45.5823425604301</v>
       </c>
     </row>
     <row r="2704">
@@ -71055,7 +71055,7 @@
         <v>266</v>
       </c>
       <c r="H2704" t="n">
-        <v>235.401313856219</v>
+        <v>46.2308229426098</v>
       </c>
     </row>
     <row r="2705">
@@ -71081,7 +71081,7 @@
         <v>266</v>
       </c>
       <c r="H2705" t="n">
-        <v>238.689611193664</v>
+        <v>46.8766166703496</v>
       </c>
     </row>
     <row r="2706">
@@ -77007,7 +77007,7 @@
         <v>267</v>
       </c>
       <c r="H2935" t="n">
-        <v>145.87565218125</v>
+        <v>157.035442282325</v>
       </c>
     </row>
     <row r="2936">
@@ -77033,7 +77033,7 @@
         <v>267</v>
       </c>
       <c r="H2936" t="n">
-        <v>146.605030442156</v>
+        <v>168.865956762063</v>
       </c>
     </row>
     <row r="2937">
@@ -77059,7 +77059,7 @@
         <v>267</v>
       </c>
       <c r="H2937" t="n">
-        <v>147.704568170472</v>
+        <v>165.254970796809</v>
       </c>
     </row>
     <row r="2938">
@@ -77085,7 +77085,7 @@
         <v>267</v>
       </c>
       <c r="H2938" t="n">
-        <v>149.181613852178</v>
+        <v>161.948480308013</v>
       </c>
     </row>
     <row r="2939">
@@ -77111,7 +77111,7 @@
         <v>267</v>
       </c>
       <c r="H2939" t="n">
-        <v>159.560869928672</v>
+        <v>167.470445884562</v>
       </c>
     </row>
     <row r="2940">
@@ -77137,7 +77137,7 @@
         <v>267</v>
       </c>
       <c r="H2940" t="n">
-        <v>169.180231690847</v>
+        <v>172.158013427143</v>
       </c>
     </row>
     <row r="2941">
@@ -77163,7 +77163,7 @@
         <v>267</v>
       </c>
       <c r="H2941" t="n">
-        <v>187.14752854527</v>
+        <v>174.763537539673</v>
       </c>
     </row>
     <row r="2942">
@@ -77189,7 +77189,7 @@
         <v>267</v>
       </c>
       <c r="H2942" t="n">
-        <v>204.269655107681</v>
+        <v>176.450477307304</v>
       </c>
     </row>
     <row r="2943">
@@ -77215,7 +77215,7 @@
         <v>267</v>
       </c>
       <c r="H2943" t="n">
-        <v>221.516114950209</v>
+        <v>178.187603292202</v>
       </c>
     </row>
     <row r="2944">
@@ -77241,7 +77241,7 @@
         <v>267</v>
       </c>
       <c r="H2944" t="n">
-        <v>238.753421472632</v>
+        <v>179.840688565373</v>
       </c>
     </row>
     <row r="2945">
@@ -77267,7 +77267,7 @@
         <v>267</v>
       </c>
       <c r="H2945" t="n">
-        <v>245.714260259061</v>
+        <v>186.492763970503</v>
       </c>
     </row>
     <row r="2946">
@@ -77293,7 +77293,7 @@
         <v>267</v>
       </c>
       <c r="H2946" t="n">
-        <v>253.041043582034</v>
+        <v>193.484449047411</v>
       </c>
     </row>
     <row r="2947">
@@ -77319,7 +77319,7 @@
         <v>267</v>
       </c>
       <c r="H2947" t="n">
-        <v>260.700503756413</v>
+        <v>200.782321724851</v>
       </c>
     </row>
     <row r="2948">
@@ -77345,7 +77345,7 @@
         <v>267</v>
       </c>
       <c r="H2948" t="n">
-        <v>267.894216338825</v>
+        <v>207.587802268271</v>
       </c>
     </row>
     <row r="2949">
@@ -77371,7 +77371,7 @@
         <v>267</v>
       </c>
       <c r="H2949" t="n">
-        <v>268.847979780602</v>
+        <v>207.896546463436</v>
       </c>
     </row>
     <row r="2950">
@@ -77397,7 +77397,7 @@
         <v>267</v>
       </c>
       <c r="H2950" t="n">
-        <v>269.76847553724</v>
+        <v>208.006180545218</v>
       </c>
     </row>
     <row r="2951">
@@ -77423,7 +77423,7 @@
         <v>267</v>
       </c>
       <c r="H2951" t="n">
-        <v>270.655703608737</v>
+        <v>207.914293065751</v>
       </c>
     </row>
     <row r="2952">
@@ -77449,7 +77449,7 @@
         <v>267</v>
       </c>
       <c r="H2952" t="n">
-        <v>271.542931680234</v>
+        <v>207.651705198419</v>
       </c>
     </row>
     <row r="2953">
@@ -77475,7 +77475,7 @@
         <v>267</v>
       </c>
       <c r="H2953" t="n">
-        <v>272.469072827006</v>
+        <v>207.920954699618</v>
       </c>
     </row>
     <row r="2954">
@@ -89841,7 +89841,7 @@
         <v>269</v>
       </c>
       <c r="H3431" t="n">
-        <v>44</v>
+        <v>52.1999999999999</v>
       </c>
     </row>
     <row r="3432">
@@ -89867,7 +89867,7 @@
         <v>269</v>
       </c>
       <c r="H3432" t="n">
-        <v>44</v>
+        <v>49.0342552482505</v>
       </c>
     </row>
     <row r="3433">
@@ -89893,7 +89893,7 @@
         <v>269</v>
       </c>
       <c r="H3433" t="n">
-        <v>44</v>
+        <v>46.2337887370876</v>
       </c>
     </row>
     <row r="3434">
@@ -89919,7 +89919,7 @@
         <v>269</v>
       </c>
       <c r="H3434" t="n">
-        <v>44</v>
+        <v>44.4160946351216</v>
       </c>
     </row>
     <row r="3435">
@@ -89945,7 +89945,7 @@
         <v>269</v>
       </c>
       <c r="H3435" t="n">
-        <v>44</v>
+        <v>43.9116627790736</v>
       </c>
     </row>
     <row r="3436">
@@ -89971,7 +89971,7 @@
         <v>269</v>
       </c>
       <c r="H3436" t="n">
-        <v>44</v>
+        <v>42.9723758747084</v>
       </c>
     </row>
     <row r="3437">
@@ -89997,7 +89997,7 @@
         <v>269</v>
       </c>
       <c r="H3437" t="n">
-        <v>44</v>
+        <v>42.2592135954681</v>
       </c>
     </row>
     <row r="3438">

--- a/results/5-2021/fim_long.xlsx
+++ b/results/5-2021/fim_long.xlsx
@@ -19369,7 +19369,7 @@
         <v>262</v>
       </c>
       <c r="H703" t="n">
-        <v>1556.51723129727</v>
+        <v>1526.51723129727</v>
       </c>
     </row>
     <row r="704">
@@ -19395,7 +19395,7 @@
         <v>262</v>
       </c>
       <c r="H704" t="n">
-        <v>1550.28170088349</v>
+        <v>1520.28170088349</v>
       </c>
     </row>
     <row r="705">
@@ -19421,7 +19421,7 @@
         <v>262</v>
       </c>
       <c r="H705" t="n">
-        <v>1564.25874006765</v>
+        <v>1534.25874006765</v>
       </c>
     </row>
     <row r="706">
@@ -19447,7 +19447,7 @@
         <v>262</v>
       </c>
       <c r="H706" t="n">
-        <v>1579.63934046296</v>
+        <v>1549.63934046296</v>
       </c>
     </row>
     <row r="707">
@@ -19473,7 +19473,7 @@
         <v>262</v>
       </c>
       <c r="H707" t="n">
-        <v>1592.63636572929</v>
+        <v>1564.38636572929</v>
       </c>
     </row>
     <row r="708">
@@ -19499,7 +19499,7 @@
         <v>262</v>
       </c>
       <c r="H708" t="n">
-        <v>1607.46907068331</v>
+        <v>1579.21907068331</v>
       </c>
     </row>
     <row r="709">
@@ -19525,7 +19525,7 @@
         <v>262</v>
       </c>
       <c r="H709" t="n">
-        <v>1622.64604368956</v>
+        <v>1594.39604368956</v>
       </c>
     </row>
     <row r="710">
@@ -19551,7 +19551,7 @@
         <v>262</v>
       </c>
       <c r="H710" t="n">
-        <v>1637.82589609165</v>
+        <v>1609.57589609165</v>
       </c>
     </row>
     <row r="711">
@@ -19577,7 +19577,7 @@
         <v>262</v>
       </c>
       <c r="H711" t="n">
-        <v>1651.54074120702</v>
+        <v>1625.04074120702</v>
       </c>
     </row>
     <row r="712">
@@ -19603,7 +19603,7 @@
         <v>262</v>
       </c>
       <c r="H712" t="n">
-        <v>1667.28712233697</v>
+        <v>1640.78712233697</v>
       </c>
     </row>
     <row r="713">
@@ -19629,7 +19629,7 @@
         <v>262</v>
       </c>
       <c r="H713" t="n">
-        <v>1683.41350885208</v>
+        <v>1656.91350885208</v>
       </c>
     </row>
     <row r="714">
@@ -19655,7 +19655,7 @@
         <v>262</v>
       </c>
       <c r="H714" t="n">
-        <v>1699.85889958906</v>
+        <v>1673.35889958906</v>
       </c>
     </row>
     <row r="715">
@@ -19681,7 +19681,7 @@
         <v>262</v>
       </c>
       <c r="H715" t="n">
-        <v>1716.42412653796</v>
+        <v>1689.92412653796</v>
       </c>
     </row>
     <row r="716">
@@ -19707,7 +19707,7 @@
         <v>262</v>
       </c>
       <c r="H716" t="n">
-        <v>1733.19196394336</v>
+        <v>1706.69196394336</v>
       </c>
     </row>
     <row r="717">
@@ -19733,7 +19733,7 @@
         <v>262</v>
       </c>
       <c r="H717" t="n">
-        <v>1750.14204132703</v>
+        <v>1723.64204132703</v>
       </c>
     </row>
     <row r="718">
@@ -19759,7 +19759,7 @@
         <v>262</v>
       </c>
       <c r="H718" t="n">
-        <v>1767.16727041309</v>
+        <v>1740.66727041309</v>
       </c>
     </row>
     <row r="719">
@@ -19785,7 +19785,7 @@
         <v>262</v>
       </c>
       <c r="H719" t="n">
-        <v>1784.2886769781</v>
+        <v>1757.7886769781</v>
       </c>
     </row>
     <row r="720">
@@ -19811,7 +19811,7 @@
         <v>262</v>
       </c>
       <c r="H720" t="n">
-        <v>1801.49146710183</v>
+        <v>1774.99146710183</v>
       </c>
     </row>
     <row r="721">
@@ -19837,7 +19837,7 @@
         <v>262</v>
       </c>
       <c r="H721" t="n">
-        <v>1818.83209446803</v>
+        <v>1792.33209446803</v>
       </c>
     </row>
     <row r="722">
@@ -51411,7 +51411,7 @@
         <v>269</v>
       </c>
       <c r="H1944" t="n">
-        <v>18787.0709763412</v>
+        <v>18.7870709763412</v>
       </c>
     </row>
     <row r="1945">
@@ -51437,7 +51437,7 @@
         <v>269</v>
       </c>
       <c r="H1945" t="n">
-        <v>17714.0953015661</v>
+        <v>17.7140953015661</v>
       </c>
     </row>
     <row r="1946">
